--- a/Shablon/WJ312A.xlsx
+++ b/Shablon/WJ312A.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="137">
   <si>
     <t>3. Определение метрологических характеристик.</t>
   </si>
@@ -55,21 +55,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
-  </si>
-  <si>
-    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
-  </si>
-  <si>
-    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
-  </si>
-  <si>
-    <t>Аттестат аккредитации № РОСС СОБ 3.00231.2014</t>
-  </si>
-  <si>
-    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
   </si>
   <si>
     <t>_type</t>
@@ -496,11 +481,14 @@
   <si>
     <t>WJ-A-GS-E RevA 917106-00 Rev A МП</t>
   </si>
+  <si>
+    <t>TITLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -742,99 +730,99 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1145,7 +1133,7 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1159,74 +1147,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="A3" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1240,18 +1220,18 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
+      <c r="A7" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
@@ -1266,114 +1246,114 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="44"/>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="44"/>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="44"/>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="44"/>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="44"/>
-    </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="44"/>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="44"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1389,7 +1369,7 @@
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1401,120 +1381,120 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22" t="s">
+      <c r="F21" s="27"/>
+      <c r="G21" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="H21" s="28"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="47" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="F22" s="27"/>
+      <c r="G22" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="47" t="s">
+      <c r="H22" s="28"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="17" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="H23" s="28"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="47" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="17"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
@@ -1522,12 +1502,12 @@
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
@@ -1535,18 +1515,18 @@
     </row>
     <row r="27" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
       <c r="H27" s="7"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1570,7 +1550,7 @@
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1607,462 +1587,462 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+    </row>
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="J34" s="23"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="30"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
       <c r="G38" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="A40" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="40"/>
       <c r="G41" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I41" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="26"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="40"/>
       <c r="G42" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I42" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="26"/>
+      <c r="J42" s="41"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="25"/>
+        <v>45</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="40"/>
       <c r="G43" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I43" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J43" s="26"/>
+      <c r="J43" s="41"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="25"/>
+        <v>46</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="40"/>
       <c r="G44" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I44" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J44" s="26"/>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="25"/>
+        <v>47</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="40"/>
       <c r="G45" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I45" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="26"/>
+      <c r="J45" s="41"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F46" s="25"/>
+        <v>48</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="40"/>
       <c r="G46" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I46" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="26"/>
+      <c r="J46" s="41"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+      <c r="A48" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="40"/>
       <c r="G49" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I49" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I49" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="26"/>
+      <c r="J49" s="41"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="40"/>
       <c r="G50" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I50" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J50" s="26"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="25"/>
+        <v>45</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="40"/>
       <c r="G51" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="I51" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I51" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J51" s="26"/>
+      <c r="J51" s="41"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="25"/>
+        <v>46</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="40"/>
       <c r="G52" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I52" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J52" s="26"/>
+      <c r="J52" s="41"/>
     </row>
     <row r="53" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F53" s="25"/>
+        <v>47</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="40"/>
       <c r="G53" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I53" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J53" s="26"/>
+      <c r="J53" s="41"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F54" s="25"/>
+        <v>48</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="40"/>
       <c r="G54" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I54" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I54" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="26"/>
+      <c r="J54" s="41"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
@@ -2070,106 +2050,106 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
+      <c r="A57" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
     </row>
     <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="J58" s="23"/>
+      <c r="A58" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J58" s="30"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="23"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="23"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>1</v>
       </c>
-      <c r="B61" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="23">
+      <c r="B61" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="30">
         <v>0.5</v>
       </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23">
+      <c r="D61" s="30"/>
+      <c r="E61" s="30">
         <v>500</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="H61" s="30"/>
-      <c r="I61" s="23">
+      <c r="F61" s="30"/>
+      <c r="G61" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H61" s="33"/>
+      <c r="I61" s="30">
         <v>3.5</v>
       </c>
-      <c r="J61" s="23"/>
+      <c r="J61" s="30"/>
     </row>
     <row r="62" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>2</v>
       </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H62" s="30"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" s="33"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -2178,82 +2158,82 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="38"/>
+      <c r="E65" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H65" s="23"/>
+      <c r="H65" s="30"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="23"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="23"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
     </row>
     <row r="68" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
         <v>1</v>
       </c>
-      <c r="B68" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="F68" s="30"/>
-      <c r="G68" s="23">
+      <c r="B68" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="38"/>
+      <c r="E68" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F68" s="33"/>
+      <c r="G68" s="30">
         <v>100</v>
       </c>
-      <c r="H68" s="23"/>
+      <c r="H68" s="30"/>
     </row>
     <row r="69" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
         <v>2</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F69" s="30"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F69" s="33"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -2261,20 +2241,20 @@
       </c>
     </row>
     <row r="74" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B74" s="20"/>
+      <c r="A74" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="34"/>
       <c r="C74" s="8"/>
       <c r="D74" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E74" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F74" s="32"/>
+        <v>104</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F74" s="36"/>
       <c r="G74" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H74" s="11"/>
       <c r="I74" s="1"/>
@@ -2291,14 +2271,14 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" s="33"/>
+      <c r="A76" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="34"/>
+      <c r="C76" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="37"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -2307,76 +2287,24 @@
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="I58:J60"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C65:D67"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="E65:F67"/>
-    <mergeCell ref="G65:H67"/>
-    <mergeCell ref="G68:H69"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="I61:J62"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:D60"/>
-    <mergeCell ref="E58:F60"/>
-    <mergeCell ref="G58:H60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G34:H37"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="E34:F38"/>
-    <mergeCell ref="I34:J38"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C50:D50"/>
     <mergeCell ref="A33:J33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="B34:B38"/>
@@ -2393,29 +2321,81 @@
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G34:H37"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="E34:F38"/>
+    <mergeCell ref="I34:J38"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C65:D67"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="E65:F67"/>
+    <mergeCell ref="G65:H67"/>
+    <mergeCell ref="G68:H69"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="I58:J60"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="I61:J62"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:D60"/>
+    <mergeCell ref="E58:F60"/>
+    <mergeCell ref="G58:H60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:F62"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:F19"/>
     <mergeCell ref="G18:H19"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;P страница из &amp;N</oddFooter>
   </headerFooter>

--- a/Shablon/WJ312A.xlsx
+++ b/Shablon/WJ312A.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="141">
   <si>
     <t>3. Определение метрологических характеристик.</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
+  </si>
+  <si>
+    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
+  </si>
+  <si>
+    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
   </si>
   <si>
     <t>_type</t>
@@ -220,150 +229,6 @@
     <t>± 30,0</t>
   </si>
   <si>
-    <t>dcv_1</t>
-  </si>
-  <si>
-    <t>dcv_3</t>
-  </si>
-  <si>
-    <t>dcv_5</t>
-  </si>
-  <si>
-    <t>dcv_7</t>
-  </si>
-  <si>
-    <t>dcv_9</t>
-  </si>
-  <si>
-    <t>dcv_11</t>
-  </si>
-  <si>
-    <t>dcv_2</t>
-  </si>
-  <si>
-    <t>dcv_4</t>
-  </si>
-  <si>
-    <t>dcv_6</t>
-  </si>
-  <si>
-    <t>dcv_8</t>
-  </si>
-  <si>
-    <t>dcv_10</t>
-  </si>
-  <si>
-    <t>dcv_12</t>
-  </si>
-  <si>
-    <t>gdcv_1</t>
-  </si>
-  <si>
-    <t>gdcv_3</t>
-  </si>
-  <si>
-    <t>gdcv_5</t>
-  </si>
-  <si>
-    <t>gdcv_7</t>
-  </si>
-  <si>
-    <t>gdcv_9</t>
-  </si>
-  <si>
-    <t>gdcv_11</t>
-  </si>
-  <si>
-    <t>gdcv_2</t>
-  </si>
-  <si>
-    <t>gdcv_4</t>
-  </si>
-  <si>
-    <t>gdcv_6</t>
-  </si>
-  <si>
-    <t>gdcv_8</t>
-  </si>
-  <si>
-    <t>gdcv_10</t>
-  </si>
-  <si>
-    <t>gdcv_12</t>
-  </si>
-  <si>
-    <t>dcv_13</t>
-  </si>
-  <si>
-    <t>dcv_14</t>
-  </si>
-  <si>
-    <t>dcv_15</t>
-  </si>
-  <si>
-    <t>dcv_16</t>
-  </si>
-  <si>
-    <t>dcv_17</t>
-  </si>
-  <si>
-    <t>dcv_18</t>
-  </si>
-  <si>
-    <t>dcv_19</t>
-  </si>
-  <si>
-    <t>dcv_20</t>
-  </si>
-  <si>
-    <t>dcv_21</t>
-  </si>
-  <si>
-    <t>dcv_22</t>
-  </si>
-  <si>
-    <t>dcv_23</t>
-  </si>
-  <si>
-    <t>dcv_24</t>
-  </si>
-  <si>
-    <t>gdcv_13</t>
-  </si>
-  <si>
-    <t>gdcv_14</t>
-  </si>
-  <si>
-    <t>gdcv_15</t>
-  </si>
-  <si>
-    <t>gdcv_16</t>
-  </si>
-  <si>
-    <t>gdcv_17</t>
-  </si>
-  <si>
-    <t>gdcv_18</t>
-  </si>
-  <si>
-    <t>gdcv_19</t>
-  </si>
-  <si>
-    <t>gdcv_20</t>
-  </si>
-  <si>
-    <t>gdcv_21</t>
-  </si>
-  <si>
-    <t>gdcv_22</t>
-  </si>
-  <si>
-    <t>gdcv_23</t>
-  </si>
-  <si>
-    <t>gdcv_24</t>
-  </si>
-  <si>
     <t>3.1 Определение погрешности измерения напряжения</t>
   </si>
   <si>
@@ -380,9 +245,6 @@
   </si>
   <si>
     <t>Абсолютная погрешность измерения напряжения, мВ</t>
-  </si>
-  <si>
-    <t>Калибровку провёл:</t>
   </si>
   <si>
     <t>(</t>
@@ -440,18 +302,12 @@
     <t>frq_2</t>
   </si>
   <si>
-    <t>1 МОм</t>
-  </si>
-  <si>
     <t>3.3 Определение погрешности измерения периода (частоты)</t>
   </si>
   <si>
     <t>Длительность импульса, пс</t>
   </si>
   <si>
-    <t>Протокол поверки № ______</t>
-  </si>
-  <si>
     <t xml:space="preserve">Наименование и тип СИ: </t>
   </si>
   <si>
@@ -482,15 +338,172 @@
     <t>WJ-A-GS-E RevA 917106-00 Rev A МП</t>
   </si>
   <si>
-    <t>TITLE</t>
+    <t>СГМетр, лаборатория средств электрических и радиотехнических измерений</t>
+  </si>
+  <si>
+    <t>Уникальный номер об аккредитации в реестре акредитованных лиц № РОСС СОБ 3.00231.2014</t>
+  </si>
+  <si>
+    <t>Заключение:</t>
+  </si>
+  <si>
+    <t>Поверку провёл:</t>
+  </si>
+  <si>
+    <t>Протокол № 10/13-11-2023/</t>
+  </si>
+  <si>
+    <t>dcv1+_1</t>
+  </si>
+  <si>
+    <t>dcv1-_1</t>
+  </si>
+  <si>
+    <t>gdcv1+_1</t>
+  </si>
+  <si>
+    <t>gdcv1-_1</t>
+  </si>
+  <si>
+    <t>dcv1+_2</t>
+  </si>
+  <si>
+    <t>dcv1-_2</t>
+  </si>
+  <si>
+    <t>dcv1+_3</t>
+  </si>
+  <si>
+    <t>dcv1-_3</t>
+  </si>
+  <si>
+    <t>dcv1+_4</t>
+  </si>
+  <si>
+    <t>dcv1-_4</t>
+  </si>
+  <si>
+    <t>dcv1+_5</t>
+  </si>
+  <si>
+    <t>dcv1-_5</t>
+  </si>
+  <si>
+    <t>dcv1+_6</t>
+  </si>
+  <si>
+    <t>dcv1-_6</t>
+  </si>
+  <si>
+    <t>gdcv1+_2</t>
+  </si>
+  <si>
+    <t>gdcv1-_2</t>
+  </si>
+  <si>
+    <t>gdcv1+_3</t>
+  </si>
+  <si>
+    <t>gdcv1-_3</t>
+  </si>
+  <si>
+    <t>gdcv1+_4</t>
+  </si>
+  <si>
+    <t>gdcv1-_4</t>
+  </si>
+  <si>
+    <t>gdcv1+_5</t>
+  </si>
+  <si>
+    <t>gdcv1-_5</t>
+  </si>
+  <si>
+    <t>gdcv1+_6</t>
+  </si>
+  <si>
+    <t>gdcv1-_6</t>
+  </si>
+  <si>
+    <t>dcv2+_1</t>
+  </si>
+  <si>
+    <t>dcv2-_1</t>
+  </si>
+  <si>
+    <t>gdcv2+_1</t>
+  </si>
+  <si>
+    <t>gdcv2-_1</t>
+  </si>
+  <si>
+    <t>dcv2+_2</t>
+  </si>
+  <si>
+    <t>dcv2-_2</t>
+  </si>
+  <si>
+    <t>dcv2+_3</t>
+  </si>
+  <si>
+    <t>dcv2-_3</t>
+  </si>
+  <si>
+    <t>dcv2+_4</t>
+  </si>
+  <si>
+    <t>dcv2-_4</t>
+  </si>
+  <si>
+    <t>dcv2+_5</t>
+  </si>
+  <si>
+    <t>dcv2-_5</t>
+  </si>
+  <si>
+    <t>dcv2+_6</t>
+  </si>
+  <si>
+    <t>dcv2-_6</t>
+  </si>
+  <si>
+    <t>gdcv2+_2</t>
+  </si>
+  <si>
+    <t>gdcv2-_2</t>
+  </si>
+  <si>
+    <t>gdcv2+_3</t>
+  </si>
+  <si>
+    <t>gdcv2-_3</t>
+  </si>
+  <si>
+    <t>gdcv2+_4</t>
+  </si>
+  <si>
+    <t>gdcv2-_4</t>
+  </si>
+  <si>
+    <t>gdcv2+_5</t>
+  </si>
+  <si>
+    <t>gdcv2-_5</t>
+  </si>
+  <si>
+    <t>gdcv2+_6</t>
+  </si>
+  <si>
+    <t>gdcv2-_6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -546,15 +559,6 @@
     <font>
       <b/>
       <i/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <u/>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -597,6 +601,11 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -696,16 +705,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -717,8 +727,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -744,90 +754,96 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1130,10 +1146,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1147,66 +1163,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="A1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="A2" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="A3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="A4" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
+      <c r="A5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1220,18 +1244,20 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="A7" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
@@ -1246,114 +1272,114 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="19" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="22" t="s">
-        <v>12</v>
+      <c r="G9" s="44" t="s">
+        <v>15</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="23"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="24" t="s">
-        <v>13</v>
+      <c r="A10" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="23"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="23"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
-      <c r="J12" s="23"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="24" t="s">
-        <v>14</v>
+      <c r="A13" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="23"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="25" t="s">
-        <v>135</v>
+      <c r="A14" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="23"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="19" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="23"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1369,7 +1395,7 @@
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1381,112 +1407,112 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="39"/>
+      <c r="A18" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="32"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="A20" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="36"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="28"/>
+      <c r="A21" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="36"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="28"/>
+      <c r="A22" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="36"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="28"/>
+      <c r="A23" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="36"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="28"/>
+      <c r="A24" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="36"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1502,7 +1528,7 @@
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1526,7 +1552,7 @@
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1550,7 +1576,7 @@
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1587,791 +1613,677 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
+      <c r="A33" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="J34" s="30"/>
+      <c r="A34" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
       <c r="G38" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+    </row>
+    <row r="40" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="47"/>
+      <c r="G40" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="31"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="40"/>
+        <v>47</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="47"/>
       <c r="G41" s="12" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I41" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="41"/>
+        <v>108</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="40"/>
+        <v>48</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="47"/>
       <c r="G42" s="12" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I42" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="41"/>
+        <v>110</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="31"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="40"/>
+        <v>49</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="47"/>
       <c r="G43" s="12" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I43" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="41"/>
+        <v>112</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" s="40"/>
+        <v>50</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="47"/>
       <c r="G44" s="12" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I44" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="J44" s="41"/>
+        <v>114</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="47"/>
+      <c r="G45" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="31"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="47"/>
+      <c r="G47" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="31"/>
+    </row>
+    <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I45" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="41"/>
-    </row>
-    <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46" s="40"/>
-      <c r="G46" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I46" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="J46" s="41"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="28" t="s">
+      <c r="C48" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="31"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="40"/>
+        <v>48</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="47"/>
       <c r="G49" s="12" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I49" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="41"/>
+        <v>134</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="31"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="F50" s="40"/>
+        <v>49</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="47"/>
       <c r="G50" s="12" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I50" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" s="41"/>
+        <v>136</v>
+      </c>
+      <c r="I50" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="31"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="40"/>
+        <v>50</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" s="47"/>
       <c r="G51" s="12" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I51" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="41"/>
+        <v>138</v>
+      </c>
+      <c r="I51" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="31"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" s="40"/>
+        <v>51</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="47"/>
       <c r="G52" s="12" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I52" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="J52" s="41"/>
-    </row>
-    <row r="53" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I52" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" s="31"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+    </row>
+    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I53" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J53" s="41"/>
-    </row>
-    <row r="54" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" s="40"/>
-      <c r="G54" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I54" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="J54" s="41"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C55" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J55" s="33"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="33"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-    </row>
-    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30" t="s">
+      <c r="A57" s="33"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+    </row>
+    <row r="58" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="14">
+        <v>1</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33">
+        <v>500</v>
+      </c>
+      <c r="F58" s="33"/>
+      <c r="G58" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" s="48"/>
+      <c r="I58" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="J58" s="33"/>
+    </row>
+    <row r="59" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="14">
+        <v>2</v>
+      </c>
+      <c r="B59" s="38"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" s="48"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="38"/>
+      <c r="E62" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" s="33"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="33"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="33"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="14">
+        <v>1</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="38"/>
+      <c r="E65" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="48"/>
+      <c r="G65" s="33">
         <v>100</v>
       </c>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="J58" s="30"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="30"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="30"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-    </row>
-    <row r="61" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="14">
-        <v>1</v>
-      </c>
-      <c r="B61" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30">
-        <v>500</v>
-      </c>
-      <c r="F61" s="30"/>
-      <c r="G61" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="H61" s="33"/>
-      <c r="I61" s="30">
-        <v>3.5</v>
-      </c>
-      <c r="J61" s="30"/>
-    </row>
-    <row r="62" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="14">
+      <c r="H65" s="33"/>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="14">
         <v>2</v>
       </c>
-      <c r="B62" s="38"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="H62" s="33"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="H65" s="30"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="30"/>
-      <c r="B66" s="39"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="30"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-    </row>
-    <row r="68" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="14">
-        <v>1</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" s="38"/>
-      <c r="E68" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="F68" s="33"/>
-      <c r="G68" s="30">
-        <v>100</v>
-      </c>
-      <c r="H68" s="30"/>
-    </row>
-    <row r="69" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="14">
-        <v>2</v>
-      </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="F69" s="33"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74" s="34"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E74" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F74" s="36"/>
-      <c r="G74" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H74" s="11"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B76" s="34"/>
-      <c r="C76" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="E66" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="48"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="28"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="28"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="29"/>
+      <c r="G70" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="28"/>
+      <c r="C71" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="50"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="105">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:D38"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G34:H37"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="E34:F38"/>
-    <mergeCell ref="I34:J38"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C65:D67"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="E65:F67"/>
-    <mergeCell ref="G65:H67"/>
-    <mergeCell ref="G68:H69"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="I58:J60"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="I61:J62"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:D60"/>
-    <mergeCell ref="E58:F60"/>
-    <mergeCell ref="G58:H60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A20:D20"/>
+  <mergeCells count="104">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="A21:D21"/>
@@ -2383,21 +2295,98 @@
     <mergeCell ref="A18:D19"/>
     <mergeCell ref="E18:F19"/>
     <mergeCell ref="G18:H19"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="I55:J57"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="I58:J59"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:D57"/>
+    <mergeCell ref="E55:F57"/>
+    <mergeCell ref="G55:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C62:D64"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E62:F64"/>
+    <mergeCell ref="G62:H64"/>
+    <mergeCell ref="G65:H66"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G34:H37"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="E34:F38"/>
+    <mergeCell ref="I34:J38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:D38"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.77083333333333337" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;R&amp;P страница из &amp;N</oddFooter>
+    <oddFooter>&amp;R&amp;"Times New Roman,обычный"&amp;P страница из &amp;N</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="53" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/Shablon/WJ312A.xlsx
+++ b/Shablon/WJ312A.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
   <si>
     <t>3. Определение метрологических характеристик.</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>Канал 2</t>
-  </si>
-  <si>
-    <t>Вывод:___________________</t>
   </si>
   <si>
     <t>± 2,425</t>
@@ -766,78 +763,78 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1148,8 +1145,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62:D64"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1163,74 +1160,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1244,20 +1241,20 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
+      <c r="A7" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
@@ -1272,31 +1269,31 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="44" t="s">
-        <v>15</v>
+      <c r="G9" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="45" t="s">
-        <v>16</v>
+      <c r="A10" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="29" t="s">
+        <v>15</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -1306,11 +1303,11 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="A11" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -1320,11 +1317,11 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+      <c r="A12" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="23"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
@@ -1334,13 +1331,13 @@
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="45" t="s">
-        <v>17</v>
+      <c r="A13" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="29" t="s">
+        <v>16</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -1350,13 +1347,13 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="A14" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -1366,13 +1363,13 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -1395,7 +1392,7 @@
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1407,112 +1404,112 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="32" t="s">
+      <c r="H18" s="36"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="46" t="s">
+      <c r="F20" s="32"/>
+      <c r="G20" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="46" t="s">
+      <c r="F21" s="32"/>
+      <c r="G21" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="36" t="s">
+      <c r="H21" s="33"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="46" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="36" t="s">
+      <c r="H22" s="33"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="36" t="s">
+      <c r="H23" s="33"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1528,7 +1525,7 @@
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1552,7 +1549,7 @@
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1576,7 +1573,7 @@
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1613,660 +1610,655 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
+      <c r="A33" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="33" t="s">
+      <c r="A34" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33" t="s">
+      <c r="F34" s="35"/>
+      <c r="G34" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="33"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="35"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
     </row>
     <row r="40" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47" t="s">
+      <c r="F40" s="39"/>
+      <c r="G40" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="47"/>
-      <c r="G40" s="12" t="s">
+      <c r="H40" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H40" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I40" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="J40" s="31"/>
+      <c r="I40" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="41"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="47"/>
+      <c r="F41" s="39"/>
       <c r="G41" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H41" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I41" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="31"/>
+      <c r="I41" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="47"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H42" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I42" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="31"/>
+      <c r="I42" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="41"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="47"/>
+      <c r="F43" s="39"/>
       <c r="G43" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="I43" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" s="31"/>
+      <c r="I43" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="41"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="F44" s="47"/>
+      <c r="F44" s="39"/>
       <c r="G44" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="H44" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="I44" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="31"/>
+      <c r="I44" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="47"/>
+      <c r="F45" s="39"/>
       <c r="G45" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H45" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I45" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" s="31"/>
+      <c r="I45" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="41"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47" t="s">
+      <c r="F47" s="39"/>
+      <c r="G47" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F47" s="47"/>
-      <c r="G47" s="12" t="s">
+      <c r="H47" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H47" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I47" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="31"/>
+      <c r="I47" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="41"/>
     </row>
     <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="47"/>
+      <c r="F48" s="39"/>
       <c r="G48" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="H48" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="I48" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="31"/>
+      <c r="I48" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="41"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="F49" s="47"/>
+      <c r="F49" s="39"/>
       <c r="G49" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H49" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I49" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="31"/>
+      <c r="I49" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="41"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="F50" s="47"/>
+      <c r="F50" s="39"/>
       <c r="G50" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H50" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="I50" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J50" s="31"/>
+      <c r="I50" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" s="47"/>
+      <c r="F51" s="39"/>
       <c r="G51" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H51" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="I51" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="31"/>
+      <c r="I51" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="41"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="F52" s="47"/>
+      <c r="F52" s="39"/>
       <c r="G52" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H52" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I52" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J52" s="31"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="I52" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="41"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+    </row>
+    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-    </row>
-    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="J55" s="33"/>
+      <c r="J55" s="35"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="33"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="33"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
     </row>
     <row r="58" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>1</v>
       </c>
-      <c r="B58" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="33">
+      <c r="B58" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="35">
         <v>0.5</v>
       </c>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33">
+      <c r="D58" s="35"/>
+      <c r="E58" s="35">
         <v>500</v>
       </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="H58" s="48"/>
-      <c r="I58" s="33">
+      <c r="F58" s="35"/>
+      <c r="G58" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="37"/>
+      <c r="I58" s="35">
         <v>3.5</v>
       </c>
-      <c r="J58" s="33"/>
+      <c r="J58" s="35"/>
     </row>
     <row r="59" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>2</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H59" s="48"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" s="37"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="32" t="s">
+      <c r="A62" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="D62" s="40"/>
+      <c r="E62" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="38"/>
-      <c r="E62" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="H62" s="33"/>
+      <c r="H62" s="35"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="33"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="33"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>1</v>
       </c>
-      <c r="B65" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="38" t="s">
+      <c r="B65" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F65" s="48"/>
-      <c r="G65" s="33">
+      <c r="C65" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="40"/>
+      <c r="E65" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65" s="37"/>
+      <c r="G65" s="35">
         <v>100</v>
       </c>
-      <c r="H65" s="33"/>
+      <c r="H65" s="35"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
         <v>2</v>
       </c>
-      <c r="B66" s="33"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="F66" s="48"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="37"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
     </row>
     <row r="69" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="28"/>
+      <c r="A69" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="38"/>
       <c r="C69" s="24"/>
-      <c r="D69" s="10"/>
+      <c r="D69" s="8"/>
       <c r="E69" s="10"/>
       <c r="F69" s="25"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="28"/>
+      <c r="A70" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="38"/>
       <c r="C70" s="8"/>
       <c r="D70" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="E70" s="49" t="s">
+      <c r="F70" s="49"/>
+      <c r="G70" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="10" t="s">
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
+      <c r="B71" s="38"/>
+      <c r="C71" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71" s="50"/>
+      <c r="D71" s="42"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -2274,6 +2266,86 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:D38"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="E34:F38"/>
+    <mergeCell ref="I34:J38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C62:D64"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E62:F64"/>
+    <mergeCell ref="G62:H64"/>
+    <mergeCell ref="G65:H66"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="I55:J57"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="I58:J59"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:D57"/>
+    <mergeCell ref="E55:F57"/>
+    <mergeCell ref="G55:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G34:H37"/>
+    <mergeCell ref="A39:J39"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="E24:F24"/>
@@ -2298,86 +2370,6 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="I55:J57"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="I58:J59"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:D57"/>
-    <mergeCell ref="E55:F57"/>
-    <mergeCell ref="G55:H57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C62:D64"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E62:F64"/>
-    <mergeCell ref="G62:H64"/>
-    <mergeCell ref="G65:H66"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G34:H37"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="E34:F38"/>
-    <mergeCell ref="I34:J38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:D38"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.77083333333333337" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Shablon/WJ312A.xlsx
+++ b/Shablon/WJ312A.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="139">
   <si>
     <t>3. Определение метрологических характеристик.</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>Поверку провёл:</t>
-  </si>
-  <si>
-    <t>Протокол № 10/13-11-2023/</t>
   </si>
   <si>
     <t>dcv1+_1</t>
@@ -706,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -763,79 +760,75 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1145,8 +1138,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48:D48"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1160,74 +1153,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1241,20 +1234,19 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="A7" s="48" t="str">
+        <f>"Протокол поверки № 10/"&amp;C71&amp;"/"&amp;D10</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
@@ -1269,17 +1261,17 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="19" t="s">
         <v>78</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="26" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="20"/>
@@ -1287,12 +1279,12 @@
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="29" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="20"/>
@@ -1303,11 +1295,11 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -1317,11 +1309,11 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="23"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
@@ -1331,12 +1323,12 @@
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="29" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="20"/>
@@ -1347,11 +1339,11 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="23" t="s">
         <v>86</v>
       </c>
@@ -1363,11 +1355,11 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="19" t="s">
         <v>85</v>
       </c>
@@ -1404,16 +1396,16 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="35"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="36" t="s">
         <v>20</v>
       </c>
@@ -1421,95 +1413,95 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33" t="s">
+      <c r="F20" s="46"/>
+      <c r="G20" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="33"/>
+      <c r="H20" s="47"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33" t="s">
+      <c r="F21" s="46"/>
+      <c r="G21" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="33"/>
+      <c r="H21" s="47"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33" t="s">
+      <c r="F22" s="46"/>
+      <c r="G22" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="33"/>
+      <c r="H23" s="47"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="33"/>
+      <c r="H24" s="47"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1610,108 +1602,108 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35" t="s">
+      <c r="D34" s="37"/>
+      <c r="E34" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35" t="s">
+      <c r="F34" s="37"/>
+      <c r="G34" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35" t="s">
+      <c r="H34" s="37"/>
+      <c r="I34" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="J34" s="35"/>
+      <c r="J34" s="37"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="36"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="36"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="36"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="36"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
       <c r="G38" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
     </row>
     <row r="40" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
@@ -1720,24 +1712,24 @@
       <c r="B40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39" t="s">
+      <c r="F40" s="34"/>
+      <c r="G40" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F40" s="39"/>
-      <c r="G40" s="12" t="s">
+      <c r="H40" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H40" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="I40" s="41" t="s">
+      <c r="I40" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J40" s="41"/>
+      <c r="J40" s="35"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -1746,24 +1738,24 @@
       <c r="B41" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="39"/>
+      <c r="F41" s="34"/>
       <c r="G41" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H41" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="I41" s="41" t="s">
+      <c r="I41" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="41"/>
+      <c r="J41" s="35"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
@@ -1772,24 +1764,24 @@
       <c r="B42" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="39"/>
+      <c r="F42" s="34"/>
       <c r="G42" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H42" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42" s="41" t="s">
+      <c r="I42" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="41"/>
+      <c r="J42" s="35"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
@@ -1798,24 +1790,24 @@
       <c r="B43" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F43" s="39"/>
+      <c r="F43" s="34"/>
       <c r="G43" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H43" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" s="41" t="s">
+      <c r="I43" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J43" s="41"/>
+      <c r="J43" s="35"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
@@ -1824,24 +1816,24 @@
       <c r="B44" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="F44" s="39"/>
+      <c r="F44" s="34"/>
       <c r="G44" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I44" s="41" t="s">
+      <c r="I44" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J44" s="41"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
@@ -1850,38 +1842,38 @@
       <c r="B45" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="39"/>
+      <c r="F45" s="34"/>
       <c r="G45" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H45" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I45" s="41" t="s">
+      <c r="I45" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="41"/>
+      <c r="J45" s="35"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -1890,24 +1882,24 @@
       <c r="B47" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39" t="s">
+      <c r="F47" s="34"/>
+      <c r="G47" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="12" t="s">
+      <c r="H47" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="H47" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="I47" s="41" t="s">
+      <c r="I47" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="41"/>
+      <c r="J47" s="35"/>
     </row>
     <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
@@ -1916,24 +1908,24 @@
       <c r="B48" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" s="39"/>
+      <c r="F48" s="34"/>
       <c r="G48" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H48" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="I48" s="41" t="s">
+      <c r="I48" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="41"/>
+      <c r="J48" s="35"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -1942,24 +1934,24 @@
       <c r="B49" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" s="39"/>
+      <c r="F49" s="34"/>
       <c r="G49" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H49" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="I49" s="41" t="s">
+      <c r="I49" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="41"/>
+      <c r="J49" s="35"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
@@ -1968,24 +1960,24 @@
       <c r="B50" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="F50" s="39"/>
+      <c r="F50" s="34"/>
       <c r="G50" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="H50" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I50" s="41" t="s">
+      <c r="I50" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J50" s="41"/>
+      <c r="J50" s="35"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
@@ -1994,24 +1986,24 @@
       <c r="B51" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="F51" s="39"/>
+      <c r="F51" s="34"/>
       <c r="G51" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="H51" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="I51" s="41" t="s">
+      <c r="I51" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J51" s="41"/>
+      <c r="J51" s="35"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
@@ -2020,126 +2012,126 @@
       <c r="B52" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F52" s="39"/>
+      <c r="F52" s="34"/>
       <c r="G52" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="H52" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="I52" s="41" t="s">
+      <c r="I52" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="41"/>
+      <c r="J52" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
     </row>
     <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="37" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35" t="s">
+      <c r="D55" s="37"/>
+      <c r="E55" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35" t="s">
+      <c r="F55" s="37"/>
+      <c r="G55" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35" t="s">
+      <c r="H55" s="37"/>
+      <c r="I55" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="J55" s="35"/>
+      <c r="J55" s="37"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="36"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="35"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="36"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
     </row>
     <row r="58" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>1</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="35">
+      <c r="C58" s="37">
         <v>0.5</v>
       </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37">
         <v>500</v>
       </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="37" t="s">
+      <c r="F58" s="37"/>
+      <c r="G58" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="H58" s="37"/>
-      <c r="I58" s="35">
+      <c r="H58" s="42"/>
+      <c r="I58" s="37">
         <v>3.5</v>
       </c>
-      <c r="J58" s="35"/>
+      <c r="J58" s="37"/>
     </row>
     <row r="59" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>2</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="37" t="s">
+      <c r="B59" s="41"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="H59" s="37"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
@@ -2147,84 +2139,84 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="37" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="40"/>
-      <c r="E62" s="35" t="s">
+      <c r="D62" s="41"/>
+      <c r="E62" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35" t="s">
+      <c r="F62" s="37"/>
+      <c r="G62" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="H62" s="35"/>
+      <c r="H62" s="37"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="35"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="36"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="35"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="36"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>1</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="37" t="s">
+      <c r="D65" s="41"/>
+      <c r="E65" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="F65" s="37"/>
-      <c r="G65" s="35">
+      <c r="F65" s="42"/>
+      <c r="G65" s="37">
         <v>100</v>
       </c>
-      <c r="H65" s="35"/>
+      <c r="H65" s="37"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
         <v>2</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="37" t="s">
+      <c r="B66" s="37"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="37"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="69" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="38"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="24"/>
       <c r="D69" s="8"/>
       <c r="E69" s="10"/>
@@ -2233,32 +2225,32 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="38"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="8"/>
       <c r="D70" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E70" s="48" t="s">
+      <c r="E70" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F70" s="49"/>
+      <c r="F70" s="32"/>
       <c r="G70" s="10" t="s">
         <v>59</v>
       </c>
       <c r="H70" s="11"/>
     </row>
     <row r="71" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="42" t="s">
+      <c r="B71" s="30"/>
+      <c r="C71" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="42"/>
+      <c r="D71" s="40"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -2266,6 +2258,86 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="I55:J57"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="I58:J59"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:D57"/>
+    <mergeCell ref="E55:F57"/>
+    <mergeCell ref="G55:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G34:H37"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C62:D64"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E62:F64"/>
+    <mergeCell ref="G62:H64"/>
+    <mergeCell ref="G65:H66"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="E34:F38"/>
+    <mergeCell ref="I34:J38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="I48:J48"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
@@ -2290,86 +2362,6 @@
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="C34:D38"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="E34:F38"/>
-    <mergeCell ref="I34:J38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C62:D64"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E62:F64"/>
-    <mergeCell ref="G62:H64"/>
-    <mergeCell ref="G65:H66"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="I55:J57"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="I58:J59"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:D57"/>
-    <mergeCell ref="E55:F57"/>
-    <mergeCell ref="G55:H57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G34:H37"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.77083333333333337" header="0.51181102362204722" footer="0.51181102362204722"/>
